--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0004-007 - Upload List File and Edit.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0004-007 - Upload List File and Edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4AA060-17B0-448F-B040-2688EB85341E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECE4BEA-F67D-42E6-A2C7-A4156A107288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
